--- a/01 DOCUEMENTOS/CENTRAL#16   ARCHIVO   2 0 2 3/ARQUI  REMODEL  11 SUR   2023.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL#16   ARCHIVO   2 0 2 3/ARQUI  REMODEL  11 SUR   2023.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ROUSS\Documents\GitHub\TRABAJO\01 DOCUEMENTOS\CENTRAL   ARCHIVO   2 0 2 3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ROUSS\Documents\GitHub\TRABAJO\01 DOCUEMENTOS\CENTRAL#16   ARCHIVO   2 0 2 3\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="10">
   <si>
     <t xml:space="preserve">DEMOLICION           11 SUR </t>
   </si>
@@ -1096,8 +1096,8 @@
   </sheetPr>
   <dimension ref="A1:D80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="D28" sqref="D27:D28"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1374,9 +1374,15 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="79"/>
-      <c r="B25" s="51"/>
-      <c r="C25" s="40"/>
-      <c r="D25" s="58"/>
+      <c r="B25" s="51">
+        <v>45299</v>
+      </c>
+      <c r="C25" s="40">
+        <v>100000</v>
+      </c>
+      <c r="D25" s="58" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="79"/>
@@ -1517,7 +1523,7 @@
       </c>
       <c r="C48" s="42">
         <f>SUM(C5:C47)</f>
-        <v>1907506.92</v>
+        <v>2007506.92</v>
       </c>
     </row>
     <row r="49" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
@@ -1574,7 +1580,7 @@
       </c>
       <c r="C56" s="46">
         <f>SUM(C48:C55)</f>
-        <v>-3885375.9000000004</v>
+        <v>-3785375.9000000004</v>
       </c>
       <c r="D56" s="63"/>
     </row>

--- a/01 DOCUEMENTOS/CENTRAL#16   ARCHIVO   2 0 2 3/ARQUI  REMODEL  11 SUR   2023.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL#16   ARCHIVO   2 0 2 3/ARQUI  REMODEL  11 SUR   2023.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="11">
   <si>
     <t xml:space="preserve">DEMOLICION           11 SUR </t>
   </si>
@@ -58,6 +58,9 @@
   </si>
   <si>
     <t>TRANSFERENCIA Cementos y concretos la Cruz Azul</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PRESUPUESTO </t>
   </si>
 </sst>
 </file>
@@ -133,22 +136,22 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color rgb="FF3333FF"/>
+      <sz val="12"/>
+      <color rgb="FF990000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="12"/>
-      <color rgb="FF990000"/>
+      <sz val="13"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -173,12 +176,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="17">
     <border>
@@ -383,7 +380,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="82">
+  <cellXfs count="87">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
@@ -468,9 +465,6 @@
     </xf>
     <xf numFmtId="44" fontId="5" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="8" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="44" fontId="3" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="3" fillId="3" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
@@ -498,7 +492,7 @@
     <xf numFmtId="15" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="15" fontId="9" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="15" fontId="8" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -547,6 +541,22 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="15" fontId="4" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="3" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -853,23 +863,23 @@
   <sheetData>
     <row r="1" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="69" t="s">
+      <c r="B2" s="68" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="72" t="s">
+      <c r="C2" s="71" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="73"/>
+      <c r="D2" s="72"/>
       <c r="E2" s="2"/>
     </row>
     <row r="3" spans="2:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="70"/>
-      <c r="C3" s="74"/>
-      <c r="D3" s="74"/>
-      <c r="E3" s="75"/>
+      <c r="B3" s="69"/>
+      <c r="C3" s="73"/>
+      <c r="D3" s="73"/>
+      <c r="E3" s="74"/>
     </row>
     <row r="4" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="71"/>
+      <c r="B4" s="70"/>
       <c r="C4" s="3" t="s">
         <v>2</v>
       </c>
@@ -907,7 +917,7 @@
       <c r="E7" s="14"/>
     </row>
     <row r="8" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B8" s="76"/>
+      <c r="B8" s="75"/>
       <c r="C8" s="10">
         <v>44725</v>
       </c>
@@ -917,7 +927,7 @@
       <c r="E8" s="12"/>
     </row>
     <row r="9" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B9" s="77"/>
+      <c r="B9" s="76"/>
       <c r="C9" s="15"/>
       <c r="D9" s="16"/>
       <c r="E9" s="12"/>
@@ -1096,428 +1106,428 @@
   </sheetPr>
   <dimension ref="A1:D80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.7109375" customWidth="1"/>
     <col min="3" max="3" width="19.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="47.28515625" style="54" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="38.7109375" style="53" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="78" t="s">
+      <c r="A2" s="77" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="81" t="s">
+      <c r="B2" s="80" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="81"/>
-      <c r="D2" s="55"/>
+      <c r="C2" s="80"/>
+      <c r="D2" s="54"/>
     </row>
     <row r="3" spans="1:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="79"/>
-      <c r="B3" s="74"/>
-      <c r="C3" s="74"/>
-      <c r="D3" s="75"/>
+      <c r="A3" s="78"/>
+      <c r="B3" s="73"/>
+      <c r="C3" s="73"/>
+      <c r="D3" s="74"/>
     </row>
     <row r="4" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="79"/>
+      <c r="A4" s="78"/>
       <c r="B4" s="3" t="s">
         <v>2</v>
       </c>
       <c r="C4" s="4"/>
-      <c r="D4" s="56"/>
+      <c r="D4" s="55"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="79"/>
-      <c r="B5" s="49">
+      <c r="A5" s="78"/>
+      <c r="B5" s="48">
         <v>45184</v>
       </c>
-      <c r="C5" s="50">
+      <c r="C5" s="49">
         <v>100000</v>
       </c>
-      <c r="D5" s="50" t="s">
+      <c r="D5" s="49" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="79"/>
-      <c r="B6" s="49">
+      <c r="A6" s="78"/>
+      <c r="B6" s="48">
         <v>45188</v>
       </c>
-      <c r="C6" s="50">
+      <c r="C6" s="49">
         <v>100000</v>
       </c>
-      <c r="D6" s="53" t="s">
+      <c r="D6" s="52" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="79"/>
-      <c r="B7" s="51">
+      <c r="A7" s="78"/>
+      <c r="B7" s="50">
         <v>45194</v>
       </c>
       <c r="C7" s="40">
         <v>100000</v>
       </c>
-      <c r="D7" s="53" t="s">
+      <c r="D7" s="52" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="79"/>
-      <c r="B8" s="51">
+      <c r="A8" s="78"/>
+      <c r="B8" s="50">
         <v>45201</v>
       </c>
       <c r="C8" s="40">
         <v>100000</v>
       </c>
-      <c r="D8" s="53" t="s">
+      <c r="D8" s="52" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="79"/>
-      <c r="B9" s="51">
+      <c r="A9" s="78"/>
+      <c r="B9" s="50">
         <v>45208</v>
       </c>
       <c r="C9" s="40">
         <v>100000</v>
       </c>
-      <c r="D9" s="53" t="s">
+      <c r="D9" s="52" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="79"/>
+      <c r="A10" s="78"/>
       <c r="B10" s="39">
         <v>45215</v>
       </c>
       <c r="C10" s="16">
         <v>100000</v>
       </c>
-      <c r="D10" s="53" t="s">
+      <c r="D10" s="52" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="79"/>
-      <c r="B11" s="66">
+      <c r="A11" s="78"/>
+      <c r="B11" s="65">
         <v>45215</v>
       </c>
-      <c r="C11" s="67">
+      <c r="C11" s="66">
         <v>150000</v>
       </c>
-      <c r="D11" s="68" t="s">
+      <c r="D11" s="67" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="79"/>
+      <c r="A12" s="78"/>
       <c r="B12" s="39">
         <v>45222</v>
       </c>
       <c r="C12" s="16">
         <v>100000</v>
       </c>
-      <c r="D12" s="57" t="s">
+      <c r="D12" s="56" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="79"/>
-      <c r="B13" s="52">
+      <c r="A13" s="78"/>
+      <c r="B13" s="51">
         <v>45230</v>
       </c>
       <c r="C13" s="16">
         <v>100000</v>
       </c>
-      <c r="D13" s="58" t="s">
+      <c r="D13" s="57" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="79"/>
-      <c r="B14" s="51">
+      <c r="A14" s="78"/>
+      <c r="B14" s="50">
         <v>45236</v>
       </c>
       <c r="C14" s="40">
         <v>100000</v>
       </c>
-      <c r="D14" s="58" t="s">
+      <c r="D14" s="57" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="79"/>
-      <c r="B15" s="51">
+      <c r="A15" s="78"/>
+      <c r="B15" s="50">
         <v>45243</v>
       </c>
       <c r="C15" s="40">
         <v>100000</v>
       </c>
-      <c r="D15" s="58" t="s">
+      <c r="D15" s="57" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="79"/>
-      <c r="B16" s="51">
+      <c r="A16" s="78"/>
+      <c r="B16" s="50">
         <v>45250</v>
       </c>
       <c r="C16" s="40">
         <v>100000</v>
       </c>
-      <c r="D16" s="58" t="s">
+      <c r="D16" s="57" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="79"/>
-      <c r="B17" s="51">
+      <c r="A17" s="78"/>
+      <c r="B17" s="50">
         <v>45257</v>
       </c>
       <c r="C17" s="40">
         <v>100000</v>
       </c>
-      <c r="D17" s="58" t="s">
+      <c r="D17" s="57" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="79"/>
-      <c r="B18" s="51">
+      <c r="A18" s="78"/>
+      <c r="B18" s="50">
         <v>45264</v>
       </c>
       <c r="C18" s="40">
         <v>100000</v>
       </c>
-      <c r="D18" s="58" t="s">
+      <c r="D18" s="57" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="79"/>
-      <c r="B19" s="51">
+      <c r="A19" s="78"/>
+      <c r="B19" s="50">
         <v>45271</v>
       </c>
       <c r="C19" s="40">
         <v>100000</v>
       </c>
-      <c r="D19" s="58" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="79"/>
-      <c r="B20" s="51">
+      <c r="D19" s="57" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A20" s="78"/>
+      <c r="B20" s="50">
         <v>45273</v>
       </c>
       <c r="C20" s="40">
         <v>11035</v>
       </c>
-      <c r="D20" s="58" t="s">
+      <c r="D20" s="81" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="79"/>
-      <c r="B21" s="51">
+    <row r="21" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A21" s="78"/>
+      <c r="B21" s="50">
         <v>45273</v>
       </c>
       <c r="C21" s="40">
         <v>46471.92</v>
       </c>
-      <c r="D21" s="58" t="s">
+      <c r="D21" s="81" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="79"/>
-      <c r="B22" s="51">
+      <c r="A22" s="78"/>
+      <c r="B22" s="50">
         <v>45278</v>
       </c>
       <c r="C22" s="40">
         <v>100000</v>
       </c>
-      <c r="D22" s="58" t="s">
+      <c r="D22" s="57" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="79"/>
-      <c r="B23" s="51">
+      <c r="A23" s="78"/>
+      <c r="B23" s="50">
         <v>45282</v>
       </c>
       <c r="C23" s="40">
         <v>100000</v>
       </c>
-      <c r="D23" s="58" t="s">
+      <c r="D23" s="57" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="79"/>
-      <c r="B24" s="51">
+      <c r="A24" s="78"/>
+      <c r="B24" s="50">
         <v>45289</v>
       </c>
       <c r="C24" s="40">
         <v>100000</v>
       </c>
-      <c r="D24" s="58" t="s">
+      <c r="D24" s="57" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="79"/>
-      <c r="B25" s="51">
+      <c r="A25" s="78"/>
+      <c r="B25" s="50">
         <v>45299</v>
       </c>
       <c r="C25" s="40">
         <v>100000</v>
       </c>
-      <c r="D25" s="58" t="s">
+      <c r="D25" s="57" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="79"/>
-      <c r="B26" s="51"/>
+      <c r="A26" s="78"/>
+      <c r="B26" s="50"/>
       <c r="C26" s="40"/>
-      <c r="D26" s="58"/>
+      <c r="D26" s="57"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="79"/>
-      <c r="B27" s="51"/>
+      <c r="A27" s="78"/>
+      <c r="B27" s="50"/>
       <c r="C27" s="40"/>
-      <c r="D27" s="58"/>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="79"/>
-      <c r="B28" s="51"/>
+      <c r="D27" s="57"/>
+    </row>
+    <row r="28" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="78"/>
+      <c r="B28" s="50"/>
       <c r="C28" s="40"/>
-      <c r="D28" s="58"/>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="79"/>
-      <c r="B29" s="51"/>
+      <c r="D28" s="57"/>
+    </row>
+    <row r="29" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="78"/>
+      <c r="B29" s="50"/>
       <c r="C29" s="40"/>
-      <c r="D29" s="58"/>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="79"/>
-      <c r="B30" s="51"/>
+      <c r="D29" s="57"/>
+    </row>
+    <row r="30" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="78"/>
+      <c r="B30" s="50"/>
       <c r="C30" s="40"/>
-      <c r="D30" s="58"/>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="79"/>
-      <c r="B31" s="51"/>
+      <c r="D30" s="57"/>
+    </row>
+    <row r="31" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="78"/>
+      <c r="B31" s="50"/>
       <c r="C31" s="40"/>
-      <c r="D31" s="58"/>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="79"/>
-      <c r="B32" s="51"/>
+      <c r="D31" s="57"/>
+    </row>
+    <row r="32" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="78"/>
+      <c r="B32" s="50"/>
       <c r="C32" s="40"/>
-      <c r="D32" s="58"/>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="79"/>
-      <c r="B33" s="51"/>
+      <c r="D32" s="57"/>
+    </row>
+    <row r="33" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="78"/>
+      <c r="B33" s="50"/>
       <c r="C33" s="40"/>
-      <c r="D33" s="58"/>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="79"/>
-      <c r="B34" s="51"/>
+      <c r="D33" s="57"/>
+    </row>
+    <row r="34" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="78"/>
+      <c r="B34" s="50"/>
       <c r="C34" s="40"/>
-      <c r="D34" s="58"/>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" s="79"/>
+      <c r="D34" s="57"/>
+    </row>
+    <row r="35" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="78"/>
       <c r="B35" s="38"/>
       <c r="C35" s="11"/>
-      <c r="D35" s="59"/>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" s="79"/>
+      <c r="D35" s="58"/>
+    </row>
+    <row r="36" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="78"/>
       <c r="B36" s="38"/>
       <c r="C36" s="11"/>
-      <c r="D36" s="59"/>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" s="79"/>
+      <c r="D36" s="58"/>
+    </row>
+    <row r="37" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="78"/>
       <c r="B37" s="38"/>
       <c r="C37" s="11"/>
-      <c r="D37" s="60"/>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" s="79"/>
+      <c r="D37" s="59"/>
+    </row>
+    <row r="38" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="78"/>
       <c r="B38" s="38"/>
       <c r="C38" s="11"/>
-      <c r="D38" s="59"/>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" s="79"/>
+      <c r="D38" s="58"/>
+    </row>
+    <row r="39" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="78"/>
       <c r="B39" s="38"/>
       <c r="C39" s="40"/>
-      <c r="D39" s="59"/>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" s="79"/>
+      <c r="D39" s="58"/>
+    </row>
+    <row r="40" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="78"/>
       <c r="B40" s="38"/>
       <c r="C40" s="40"/>
-      <c r="D40" s="59"/>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" s="79"/>
+      <c r="D40" s="58"/>
+    </row>
+    <row r="41" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="78"/>
       <c r="B41" s="38"/>
       <c r="C41" s="11"/>
-      <c r="D41" s="59"/>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" s="79"/>
+      <c r="D41" s="58"/>
+    </row>
+    <row r="42" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="78"/>
       <c r="B42" s="38"/>
       <c r="C42" s="11"/>
-      <c r="D42" s="59"/>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" s="79"/>
+      <c r="D42" s="58"/>
+    </row>
+    <row r="43" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="78"/>
       <c r="B43" s="38"/>
       <c r="C43" s="11"/>
-      <c r="D43" s="59"/>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44" s="79"/>
+      <c r="D43" s="58"/>
+    </row>
+    <row r="44" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="78"/>
       <c r="B44" s="38"/>
       <c r="C44" s="11"/>
-      <c r="D44" s="59"/>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45" s="79"/>
+      <c r="D44" s="58"/>
+    </row>
+    <row r="45" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="78"/>
       <c r="B45" s="38"/>
       <c r="C45" s="11"/>
-      <c r="D45" s="59"/>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46" s="79"/>
+      <c r="D45" s="58"/>
+    </row>
+    <row r="46" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="78"/>
       <c r="B46" s="38"/>
       <c r="C46" s="11"/>
-      <c r="D46" s="59"/>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A47" s="79"/>
+      <c r="D46" s="58"/>
+    </row>
+    <row r="47" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="78"/>
       <c r="B47" s="38"/>
       <c r="C47" s="11"/>
-      <c r="D47" s="59"/>
+      <c r="D47" s="58"/>
     </row>
     <row r="48" spans="1:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A48" s="80"/>
+      <c r="A48" s="79"/>
       <c r="B48" s="41" t="s">
         <v>3</v>
       </c>
@@ -1526,93 +1536,95 @@
         <v>2007506.92</v>
       </c>
     </row>
-    <row r="49" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:4" ht="39" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="23"/>
       <c r="B49" s="24"/>
-      <c r="C49" s="25">
+      <c r="C49" s="86">
         <v>-5792882.8200000003</v>
       </c>
-      <c r="D49" s="19"/>
+      <c r="D49" s="85" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="50" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A50" s="23"/>
       <c r="B50" s="24"/>
-      <c r="C50" s="43"/>
-      <c r="D50" s="61"/>
+      <c r="C50" s="83"/>
+      <c r="D50" s="84"/>
     </row>
     <row r="51" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A51" s="23"/>
       <c r="B51" s="24"/>
-      <c r="C51" s="43"/>
-      <c r="D51" s="61"/>
+      <c r="C51" s="83"/>
+      <c r="D51" s="84"/>
     </row>
     <row r="52" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A52" s="23"/>
       <c r="B52" s="24"/>
-      <c r="C52" s="43"/>
-      <c r="D52" s="61"/>
+      <c r="C52" s="83"/>
+      <c r="D52" s="84"/>
     </row>
     <row r="53" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A53" s="23"/>
       <c r="B53" s="24"/>
-      <c r="C53" s="25"/>
-      <c r="D53" s="19"/>
+      <c r="C53" s="44"/>
+      <c r="D53" s="10"/>
     </row>
     <row r="54" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A54" s="44">
+      <c r="A54" s="82">
         <f>C49+C50+C51+C52</f>
         <v>-5792882.8200000003</v>
       </c>
       <c r="B54" s="24"/>
-      <c r="C54" s="25"/>
-      <c r="D54" s="19"/>
+      <c r="C54" s="44"/>
+      <c r="D54" s="10"/>
     </row>
     <row r="55" spans="1:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B55" s="29"/>
-      <c r="C55" s="45">
+      <c r="C55" s="44">
         <v>0</v>
       </c>
-      <c r="D55" s="62"/>
+      <c r="D55" s="61"/>
     </row>
     <row r="56" spans="1:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B56" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="C56" s="46">
+      <c r="C56" s="45">
         <f>SUM(C48:C55)</f>
         <v>-3785375.9000000004</v>
       </c>
-      <c r="D56" s="63"/>
+      <c r="D56" s="62"/>
     </row>
     <row r="57" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A57" s="47"/>
-      <c r="B57" s="48"/>
+      <c r="A57" s="46"/>
+      <c r="B57" s="47"/>
       <c r="C57" s="43"/>
-      <c r="D57" s="63"/>
+      <c r="D57" s="62"/>
     </row>
     <row r="58" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A58" s="47"/>
-      <c r="B58" s="48"/>
+      <c r="A58" s="46"/>
+      <c r="B58" s="47"/>
       <c r="C58" s="43"/>
-      <c r="D58" s="61"/>
+      <c r="D58" s="60"/>
     </row>
     <row r="59" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A59" s="47"/>
-      <c r="B59" s="48"/>
+      <c r="A59" s="46"/>
+      <c r="B59" s="47"/>
       <c r="C59" s="43"/>
-      <c r="D59" s="61"/>
+      <c r="D59" s="60"/>
     </row>
     <row r="60" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A60" s="47"/>
-      <c r="B60" s="48"/>
+      <c r="A60" s="46"/>
+      <c r="B60" s="47"/>
       <c r="C60" s="43"/>
-      <c r="D60" s="61"/>
+      <c r="D60" s="60"/>
     </row>
     <row r="61" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A61" s="47"/>
-      <c r="B61" s="48"/>
+      <c r="A61" s="46"/>
+      <c r="B61" s="47"/>
       <c r="C61" s="43"/>
-      <c r="D61" s="63"/>
+      <c r="D61" s="62"/>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B62" s="33"/>
@@ -1636,79 +1648,79 @@
       <c r="A68" s="35"/>
       <c r="B68" s="35"/>
       <c r="C68" s="36"/>
-      <c r="D68" s="64"/>
+      <c r="D68" s="63"/>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="35"/>
       <c r="B69" s="35"/>
       <c r="C69" s="36"/>
-      <c r="D69" s="64"/>
+      <c r="D69" s="63"/>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="35"/>
       <c r="B70" s="35"/>
       <c r="C70" s="36"/>
-      <c r="D70" s="64"/>
+      <c r="D70" s="63"/>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="35"/>
       <c r="B71" s="35"/>
       <c r="C71" s="36"/>
-      <c r="D71" s="64"/>
+      <c r="D71" s="63"/>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="37"/>
       <c r="B72" s="37"/>
       <c r="C72" s="37"/>
-      <c r="D72" s="65"/>
+      <c r="D72" s="64"/>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="37"/>
       <c r="B73" s="37"/>
       <c r="C73" s="37"/>
-      <c r="D73" s="65"/>
+      <c r="D73" s="64"/>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="37"/>
       <c r="B74" s="37"/>
       <c r="C74" s="37"/>
-      <c r="D74" s="65"/>
+      <c r="D74" s="64"/>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="37"/>
       <c r="B75" s="37"/>
       <c r="C75" s="37"/>
-      <c r="D75" s="65"/>
+      <c r="D75" s="64"/>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="37"/>
       <c r="B76" s="37"/>
       <c r="C76" s="37"/>
-      <c r="D76" s="65"/>
+      <c r="D76" s="64"/>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="35"/>
       <c r="B77" s="35"/>
       <c r="C77" s="36"/>
-      <c r="D77" s="64"/>
+      <c r="D77" s="63"/>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="35"/>
       <c r="B78" s="35"/>
       <c r="C78" s="36"/>
-      <c r="D78" s="64"/>
+      <c r="D78" s="63"/>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="35"/>
       <c r="B79" s="35"/>
       <c r="C79" s="36"/>
-      <c r="D79" s="64"/>
+      <c r="D79" s="63"/>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="35"/>
       <c r="B80" s="35"/>
       <c r="C80" s="36"/>
-      <c r="D80" s="64"/>
+      <c r="D80" s="63"/>
     </row>
   </sheetData>
   <sortState ref="B20:D22">
@@ -1719,7 +1731,8 @@
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="B3:D3"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
